--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1302239.631810581</v>
+        <v>1299538.982187273</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673451</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="H2" t="n">
-        <v>161.5206846150008</v>
-      </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>72.36698404190648</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>65.395245261935</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>26.95228090977687</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.52670189341621</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>46.83699636566186</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>288.510207995321</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2614740877928</v>
+        <v>383.0198440937139</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42130226825857</v>
+        <v>12.42130226825859</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520041</v>
+        <v>99.3893572152009</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980475</v>
+        <v>143.3593638980478</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4823667709296</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0198440937175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.0137567536223</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>27.63492518707406</v>
+        <v>36.31604239259346</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907028</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.950580588878</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>162.6896675622519</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.735559994784</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422477748</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1773223714492</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4916274983621</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485286662292</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>207.1722518073672</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>86.80672870408434</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>2.739389635061188</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>158.8647187371888</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>52.50459623020464</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.6077720323801</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114117</v>
+        <v>97.97552699114092</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6087856860959</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458129</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035351</v>
+        <v>9.753166794035153</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>124.1004521009539</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034047</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146331</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>27.22555456265536</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754645</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.3210644635305</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>86.27179222793497</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819451</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64713141731194</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833055</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892427791</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922727</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2482,10 +2482,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>81.11398998229723</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>13.7258286485376</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.56412890121534</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833824</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.10695458833904</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703267</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936196</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>206.0825446342163</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470134</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>153.589961858651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833727</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>179.6926686226133</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>19.91555826189114</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>840.4214638411526</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="C2" t="n">
-        <v>840.4214638411526</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="D2" t="n">
-        <v>574.0438072739746</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E2" t="n">
-        <v>574.0438072739746</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F2" t="n">
-        <v>567.0983065247711</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
-        <v>300.7206499575932</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030606</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>827.4467551159955</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411526</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411526</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411526</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.4214638411526</v>
+        <v>307.3840804899463</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749988</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749988</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>46.96951069551282</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>121.653531464967</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>268.3979551252636</v>
       </c>
       <c r="M3" t="n">
         <v>529.4746963267547</v>
@@ -4437,22 +4437,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>970.4638329179309</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>970.4638329179309</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>735.3117246861882</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>481.0743679579866</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>273.2228677524538</v>
+        <v>546.0071558463937</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.46256898749988</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.2577368622518</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434483</v>
+        <v>55.97256685811666</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>700.5939555987218</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>700.5939555987218</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="V4" t="n">
-        <v>653.2838582596694</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="W4" t="n">
-        <v>386.9062016924914</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X4" t="n">
-        <v>386.9062016924914</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.9062016924914</v>
+        <v>224.9087497860236</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.1487931550245</v>
+        <v>530.4703790195915</v>
       </c>
       <c r="C5" t="n">
-        <v>274.1487931550245</v>
+        <v>530.4703790195915</v>
       </c>
       <c r="D5" t="n">
-        <v>274.1487931550245</v>
+        <v>530.4703790195915</v>
       </c>
       <c r="E5" t="n">
-        <v>274.1487931550245</v>
+        <v>530.4703790195915</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5816476117994</v>
+        <v>143.5816476117996</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0348776438614</v>
+        <v>131.0348776438617</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0348776438614</v>
+        <v>131.0348776438617</v>
       </c>
       <c r="I5" t="n">
-        <v>30.6415875274974</v>
+        <v>30.64158752749711</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281475</v>
+        <v>93.51877468281344</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452994</v>
+        <v>238.4938972452965</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192573</v>
+        <v>455.2501182192524</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494259</v>
+        <v>728.1026159494188</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730206</v>
+        <v>1009.983960730196</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145374</v>
+        <v>1262.821260145362</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739604</v>
+        <v>1444.111044739591</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.07937637487</v>
+        <v>1532.079376374856</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.07937637487</v>
+        <v>1532.079376374856</v>
       </c>
       <c r="S5" t="n">
-        <v>1387.271938094014</v>
+        <v>1387.271938093999</v>
       </c>
       <c r="T5" t="n">
-        <v>1387.271938094014</v>
+        <v>1174.663486810232</v>
       </c>
       <c r="U5" t="n">
-        <v>1387.271938094014</v>
+        <v>1174.663486810232</v>
       </c>
       <c r="V5" t="n">
-        <v>1387.271938094014</v>
+        <v>1174.663486810232</v>
       </c>
       <c r="W5" t="n">
-        <v>1034.5032828239</v>
+        <v>821.8948315401178</v>
       </c>
       <c r="X5" t="n">
-        <v>661.03752456282</v>
+        <v>821.8948315401178</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.1487931550245</v>
+        <v>821.8948315401178</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.55565337302676</v>
+        <v>517.1904547900551</v>
       </c>
       <c r="C6" t="n">
-        <v>58.55565337302676</v>
+        <v>342.7374255089281</v>
       </c>
       <c r="D6" t="n">
-        <v>58.55565337302676</v>
+        <v>226.5619136365824</v>
       </c>
       <c r="E6" t="n">
-        <v>58.55565337302676</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="F6" t="n">
-        <v>58.55565337302676</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="G6" t="n">
-        <v>58.55565337302676</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="H6" t="n">
-        <v>58.55565337302676</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="I6" t="n">
-        <v>30.6415875274974</v>
+        <v>30.64158752749711</v>
       </c>
       <c r="J6" t="n">
-        <v>49.27296248835682</v>
+        <v>49.27296248835592</v>
       </c>
       <c r="K6" t="n">
-        <v>159.2717745831324</v>
+        <v>159.2717745831305</v>
       </c>
       <c r="L6" t="n">
-        <v>469.8376487927548</v>
+        <v>448.9177571044994</v>
       </c>
       <c r="M6" t="n">
-        <v>715.8512040886925</v>
+        <v>828.1074027572762</v>
       </c>
       <c r="N6" t="n">
-        <v>1095.040849741473</v>
+        <v>1095.040849741462</v>
       </c>
       <c r="O6" t="n">
-        <v>1317.013008851474</v>
+        <v>1317.013008851462</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.832169705201</v>
+        <v>1475.832169705188</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.07937637487</v>
+        <v>1532.079376374856</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.07937637487</v>
+        <v>1532.079376374856</v>
       </c>
       <c r="S6" t="n">
-        <v>1387.587760525675</v>
+        <v>1532.079376374856</v>
       </c>
       <c r="T6" t="n">
-        <v>1191.678083163172</v>
+        <v>1336.169699012353</v>
       </c>
       <c r="U6" t="n">
-        <v>963.5569173034579</v>
+        <v>1336.169699012353</v>
       </c>
       <c r="V6" t="n">
-        <v>728.4048090717151</v>
+        <v>1101.01759078061</v>
       </c>
       <c r="W6" t="n">
-        <v>474.1674523435135</v>
+        <v>1101.01759078061</v>
       </c>
       <c r="X6" t="n">
-        <v>266.3159521379807</v>
+        <v>893.1660905750771</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.55565337302676</v>
+        <v>685.4057918101232</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>495.0028386886198</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="C7" t="n">
-        <v>330.6698411509917</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="D7" t="n">
-        <v>180.5532017386559</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="E7" t="n">
-        <v>32.64010815626281</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="F7" t="n">
-        <v>32.64010815626281</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="G7" t="n">
-        <v>32.64010815626281</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626281</v>
+        <v>30.64158752749711</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626281</v>
+        <v>30.64158752749711</v>
       </c>
       <c r="J7" t="n">
-        <v>30.6415875274974</v>
+        <v>30.64158752749711</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747009</v>
+        <v>157.2595961747</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914633</v>
+        <v>374.8134887914616</v>
       </c>
       <c r="M7" t="n">
-        <v>614.582688343771</v>
+        <v>614.5826883437683</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630895</v>
+        <v>854.085328663086</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109136</v>
+        <v>1059.288486109132</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016234</v>
+        <v>1211.354555016229</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767128</v>
+        <v>1233.202138767123</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.202138767128</v>
+        <v>1112.821005058588</v>
       </c>
       <c r="S7" t="n">
-        <v>1233.202138767128</v>
+        <v>909.2941085955958</v>
       </c>
       <c r="T7" t="n">
-        <v>1233.202138767128</v>
+        <v>909.2941085955958</v>
       </c>
       <c r="U7" t="n">
-        <v>1233.202138767128</v>
+        <v>620.1541806499097</v>
       </c>
       <c r="V7" t="n">
-        <v>1233.202138767128</v>
+        <v>410.8892798343872</v>
       </c>
       <c r="W7" t="n">
-        <v>943.7849687301673</v>
+        <v>410.8892798343872</v>
       </c>
       <c r="X7" t="n">
-        <v>715.79541783215</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="Y7" t="n">
-        <v>495.0028386886198</v>
+        <v>182.8997289363699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>519.5572140912818</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C8" t="n">
-        <v>150.5946971508701</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>150.5946971508701</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>150.5946971508701</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131215</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y8" t="n">
-        <v>906.1570541554036</v>
+        <v>1599.080600298115</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,25 +4884,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.543024838023</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1373.393300724232</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1084.27496322807</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2070.123830517133</v>
+        <v>1563.167068012547</v>
       </c>
       <c r="C11" t="n">
-        <v>1701.161313576721</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="D11" t="n">
-        <v>1342.895614969971</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="E11" t="n">
-        <v>957.107362371727</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="F11" t="n">
-        <v>546.1214575821198</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="G11" t="n">
-        <v>131.5460119117668</v>
+        <v>393.8408528035377</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469166</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469166</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386822</v>
+        <v>308.7333971386843</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420301</v>
+        <v>704.5155104420337</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301222</v>
+        <v>1232.419981301227</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878106</v>
+        <v>1851.484858878114</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.18066176542</v>
+        <v>2485.18066176543</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687095</v>
+        <v>3070.226377687107</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856276</v>
+        <v>3535.048359856289</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882233</v>
+        <v>3835.937563882247</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234583</v>
+        <v>3925.553311234597</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455652</v>
+        <v>3826.588132455667</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.588132455652</v>
+        <v>3622.786021971447</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.097416088261</v>
+        <v>3369.295305604055</v>
       </c>
       <c r="V11" t="n">
-        <v>3573.097416088261</v>
+        <v>3038.232418260484</v>
       </c>
       <c r="W11" t="n">
-        <v>3220.328760818146</v>
+        <v>2685.46376299037</v>
       </c>
       <c r="X11" t="n">
-        <v>2846.863002557066</v>
+        <v>2311.99800472929</v>
       </c>
       <c r="Y11" t="n">
-        <v>2456.723670581255</v>
+        <v>1949.766908076668</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.3627498550304</v>
+        <v>88.36274985503049</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469166</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792124</v>
+        <v>196.8120623792132</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376492</v>
+        <v>477.162132237651</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649582</v>
+        <v>900.4499396649612</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282818</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279348</v>
+        <v>1518.698809735872</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145096</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.97904598525</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>925.7669901098874</v>
+        <v>203.8650582458577</v>
       </c>
       <c r="C13" t="n">
-        <v>925.7669901098875</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="D13" t="n">
-        <v>775.6503506975517</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="E13" t="n">
-        <v>627.7372571151586</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="F13" t="n">
-        <v>480.8473096172483</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469166</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600397</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457698</v>
+        <v>368.4550473457708</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888906</v>
+        <v>717.5002252888924</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779219</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542992</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715846</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082518</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551102</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551102</v>
+        <v>2076.102739014275</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906985</v>
+        <v>1888.302075370158</v>
       </c>
       <c r="T13" t="n">
-        <v>1968.108379906985</v>
+        <v>1667.488017920204</v>
       </c>
       <c r="U13" t="n">
-        <v>1679.017673347273</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1424.333185141386</v>
+        <v>1123.712823154606</v>
       </c>
       <c r="W13" t="n">
-        <v>1134.916015104425</v>
+        <v>834.2956531176449</v>
       </c>
       <c r="X13" t="n">
-        <v>1107.415454940127</v>
+        <v>606.3061022196275</v>
       </c>
       <c r="Y13" t="n">
-        <v>1107.415454940127</v>
+        <v>385.5135230760974</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
         <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>424.3593983639617</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>915.0917312077129</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1507.11008545984</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>1507.11008545984</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220737</v>
+        <v>494.0589900220724</v>
       </c>
       <c r="C16" t="n">
-        <v>494.0589900220737</v>
+        <v>325.1228070941654</v>
       </c>
       <c r="D16" t="n">
-        <v>406.9157655494121</v>
+        <v>175.0061676818298</v>
       </c>
       <c r="E16" t="n">
-        <v>406.9157655494121</v>
+        <v>175.0061676818298</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>175.0061676818298</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156339</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861977</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
         <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821982</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930822</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.489584893861</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958435</v>
+        <v>896.5000339958422</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523134</v>
+        <v>675.707454852312</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400635</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121566</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925224</v>
+        <v>194.8007783998209</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101294</v>
+        <v>194.8007783998209</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998209</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998209</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5747,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925218</v>
+        <v>261.0127623330958</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101288</v>
+        <v>261.0127623330958</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122185</v>
+        <v>261.0127623330958</v>
       </c>
       <c r="G22" t="n">
-        <v>149.8982754122185</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>149.8982754122185</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5920,10 +5920,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6072,16 +6072,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>808.8888553856866</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>639.9526724577797</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>489.836033045444</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159263</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035995</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835329</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711972</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E31" t="n">
-        <v>549.614540988804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2424.632826420322</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2241.777992075226</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2022.176527098168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400713</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6868,10 +6868,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C37" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>198.0274703142543</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="38">
@@ -7160,52 +7160,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123002</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708869</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011266</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536382</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257316</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133959</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310028</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,58 +7640,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876694</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597625</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474268</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650336</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>113.9333885650336</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179091</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>28.18495819153173</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752743</v>
+        <v>34.58458098752826</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5114701984806</v>
+        <v>96.38026647297357</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>134.5213033907484</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3900996652449</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878353</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>237.0641204504727</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238052</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27.62915296995766</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>43.1463689976739</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034032</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146352</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.4841008263818</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372931</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613728911</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>62.34368079027739</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.1694538659744</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>84.77391660561931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864789334</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393445</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>25.74504007796122</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>65.31997266427194</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>211.9838267404996</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.26785128072196</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393078</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823093</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.26829212178265</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194214</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.32043864788598</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.3554390986492</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>80.44045370237467</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823189</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>38.89198472948146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>45.44677382459294</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>145.6085800303777</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>956970.6550376633</v>
+        <v>956970.6550376632</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855543.7547204865</v>
+        <v>855543.754720488</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>931011.0089288962</v>
+        <v>931011.0089288957</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.861188667</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886671</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>492625.0619185704</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>442233.6433958222</v>
+        <v>442233.6433958228</v>
       </c>
       <c r="F2" t="n">
-        <v>481607.8629828184</v>
+        <v>481607.8629828183</v>
       </c>
       <c r="G2" t="n">
+        <v>484287.9598140033</v>
+      </c>
+      <c r="H2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="H2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140034</v>
       </c>
       <c r="O2" t="n">
+        <v>484287.9598140034</v>
+      </c>
+      <c r="P2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140034</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103564</v>
+        <v>132064.9098103523</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196336</v>
+        <v>266112.9182196374</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357045</v>
+        <v>325187.1190357077</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.34710514</v>
+        <v>166521.3471051363</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557892</v>
+        <v>11167.23623557932</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.654869427746674e-11</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648425</v>
+        <v>30705.53736648332</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950788</v>
+        <v>65187.38037950873</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456767</v>
+        <v>84929.59434456857</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848973</v>
+        <v>43782.40655848859</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224857</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247648.5670423891</v>
+        <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>211763.6814565028</v>
+        <v>211763.6814565038</v>
       </c>
       <c r="D4" t="n">
         <v>135522.1369769831</v>
@@ -26427,37 +26427,37 @@
         <v>8628.13543443824</v>
       </c>
       <c r="F4" t="n">
-        <v>8720.723770518933</v>
+        <v>8720.723770518931</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744218</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744229</v>
       </c>
       <c r="I4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="J4" t="n">
-        <v>8727.256391744295</v>
-      </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744262</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744324</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744297</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="N4" t="n">
+        <v>8727.256391744322</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8727.256391744306</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744324</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589744</v>
+        <v>72540.50950589716</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214694</v>
+        <v>86093.72216214721</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-498159.288919278</v>
+        <v>-498159.2889192779</v>
       </c>
       <c r="C6" t="n">
-        <v>76255.96114581337</v>
+        <v>76255.9611458165</v>
       </c>
       <c r="D6" t="n">
-        <v>-1947.765717891336</v>
+        <v>-1947.765717895149</v>
       </c>
       <c r="E6" t="n">
-        <v>22324.6667635325</v>
+        <v>22114.70251968488</v>
       </c>
       <c r="F6" t="n">
-        <v>206223.663593321</v>
+        <v>206177.7585977592</v>
       </c>
       <c r="G6" t="n">
-        <v>363270.9373627733</v>
+        <v>363236.1994373369</v>
       </c>
       <c r="H6" t="n">
-        <v>374438.1735983522</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="I6" t="n">
-        <v>374438.1735983523</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="J6" t="n">
-        <v>305439.019179238</v>
+        <v>305404.2812538024</v>
       </c>
       <c r="K6" t="n">
-        <v>343732.6362318679</v>
+        <v>343697.8983064331</v>
       </c>
       <c r="L6" t="n">
-        <v>309250.7932188442</v>
+        <v>309216.0552934076</v>
       </c>
       <c r="M6" t="n">
-        <v>289508.5792537843</v>
+        <v>289473.841328348</v>
       </c>
       <c r="N6" t="n">
-        <v>330655.7670398622</v>
+        <v>330621.0291144277</v>
       </c>
       <c r="O6" t="n">
-        <v>371414.8756211275</v>
+        <v>371380.1376956914</v>
       </c>
       <c r="P6" t="n">
-        <v>374438.173598352</v>
+        <v>374403.4356729165</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26738,16 +26738,16 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605243</v>
+        <v>716.7570176605211</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494554</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937175</v>
+        <v>383.0198440937139</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086457</v>
+        <v>981.3883278086493</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>102.702003891046</v>
+        <v>102.7020038910429</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570149</v>
+        <v>217.3078744570181</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770151</v>
+        <v>278.1053753770178</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218315</v>
+        <v>145.8707812218283</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922114</v>
+        <v>119.3059640922078</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063214</v>
+        <v>257.5649880063249</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086069</v>
+        <v>340.8034957086104</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173612</v>
+        <v>178.7569625173568</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922114</v>
+        <v>119.3059640922078</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063214</v>
+        <v>257.5649880063247</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086069</v>
+        <v>340.8034957086106</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173612</v>
+        <v>178.7569625173566</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922114</v>
+        <v>119.3059640922078</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063214</v>
+        <v>257.5649880063249</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086069</v>
+        <v>340.8034957086104</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173612</v>
+        <v>178.7569625173568</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>152.6729480142671</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>139.9227315613168</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,19 +27509,19 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>129.4457423229418</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>178.8207042937006</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.0887711247962</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
-        <v>205.3006469581661</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>94.22363366815955</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>277.6145716539186</v>
+        <v>23.85620164799752</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936934</v>
+        <v>309.9653033936935</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1151380880864</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.218094562336091</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>32.43130881101645</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339764</v>
+        <v>97.34583147339771</v>
       </c>
       <c r="I6" t="n">
-        <v>8.681117205519161</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677228</v>
+        <v>4.436963001677654</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0466996907029</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399542011172</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>4.557153536375978</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>166.6984667036611</v>
       </c>
       <c r="H7" t="n">
-        <v>150.735559994784</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629793</v>
+        <v>116.5810943629795</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.97853542247816</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.177322371449</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.491627498362</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.4230353577824</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>44.96539151646076</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>320.0693170376271</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>383.4985490209924</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>61.88397726002313</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-7.761021455128988e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-2.272311571335907e-12</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>8.953513792444657e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>8.953513792444654e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876477</v>
+        <v>2.881435246876465</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207373</v>
+        <v>29.5094987220736</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552055</v>
+        <v>111.086532355205</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845826</v>
+        <v>244.5582147845816</v>
       </c>
       <c r="K5" t="n">
-        <v>366.529368784864</v>
+        <v>366.5293687848624</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214601</v>
+        <v>454.7120927214581</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930996</v>
+        <v>505.9548167930974</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882874</v>
+        <v>514.1416946882852</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521595</v>
+        <v>485.4894229521573</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948963</v>
+        <v>414.3539902948945</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161324</v>
+        <v>311.162590516131</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266047</v>
+        <v>181.0009568266039</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819779</v>
+        <v>65.66070568819751</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320179</v>
+        <v>12.61348279320173</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501181</v>
+        <v>0.2305148197501171</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835845</v>
+        <v>1.541703773835838</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309882</v>
+        <v>14.88961276309875</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882185</v>
+        <v>53.08059045882162</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342015</v>
+        <v>145.6571973342008</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812031</v>
+        <v>248.951350181202</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234364</v>
+        <v>334.7458128234349</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249857</v>
+        <v>390.6325746249839</v>
       </c>
       <c r="N6" t="n">
-        <v>400.971456511806</v>
+        <v>400.9714565118042</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757591</v>
+        <v>366.8105465757574</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160746</v>
+        <v>294.3978022160733</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584142</v>
+        <v>196.7971343584133</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096591</v>
+        <v>95.72087115096548</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313508</v>
+        <v>28.63647141313495</v>
       </c>
       <c r="T6" t="n">
-        <v>6.2141481059436</v>
+        <v>6.214148105943573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576214</v>
+        <v>0.101427879857621</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797667</v>
+        <v>1.292512654797661</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265563</v>
+        <v>11.49161251265557</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427893</v>
+        <v>38.86938056427876</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419503</v>
+        <v>91.38064469419461</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574016</v>
+        <v>150.1664702574009</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232822</v>
+        <v>192.1613814232814</v>
       </c>
       <c r="M7" t="n">
-        <v>202.607233697056</v>
+        <v>202.6072336970551</v>
       </c>
       <c r="N7" t="n">
-        <v>197.789686529174</v>
+        <v>197.7896865291731</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981284</v>
+        <v>182.6907886981276</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402559</v>
+        <v>156.3235305402552</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667392</v>
+        <v>108.2303096667387</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572053</v>
+        <v>58.11606900572026</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861024</v>
+        <v>22.52497053861014</v>
       </c>
       <c r="T7" t="n">
-        <v>5.52255407049912</v>
+        <v>5.522554070499095</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169099</v>
+        <v>0.07050069026169067</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485641</v>
+        <v>4.873046301485653</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508984</v>
+        <v>49.90608543508996</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380254</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307174</v>
+        <v>413.5937135307183</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726047</v>
+        <v>619.8697634726061</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216961</v>
+        <v>769.0032542216978</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857413</v>
+        <v>855.6642913857432</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898374</v>
+        <v>869.5098341898395</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294396</v>
+        <v>821.0534800294414</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615127</v>
+        <v>700.7501494615143</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789558</v>
+        <v>526.2341787895591</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356977</v>
+        <v>306.1064947356984</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951042</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475341</v>
+        <v>21.33176018475346</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188513</v>
+        <v>0.3898437041188522</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969419</v>
+        <v>2.607309631969425</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191518</v>
+        <v>25.18112197191524</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596465</v>
+        <v>89.76921320596485</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783038</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202548</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256408</v>
+        <v>566.117821625642</v>
       </c>
       <c r="M12" t="n">
-        <v>236.0541786324462</v>
+        <v>660.6327957845335</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114713</v>
+        <v>237.3367583732534</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431801</v>
+        <v>620.3452877431814</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205463</v>
+        <v>497.8817840205475</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071841</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533298</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697579</v>
+        <v>48.42963285697591</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780656</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190408</v>
+        <v>0.1715335284190412</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236081</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737172</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691781</v>
+        <v>65.73539745691797</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836909</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619738</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509171</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263704</v>
+        <v>342.6467528263712</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973089</v>
+        <v>334.4993788973097</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050055</v>
+        <v>308.9643167050062</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761892</v>
+        <v>264.3723481761898</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916777</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570596</v>
+        <v>98.28514988570618</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929606</v>
+        <v>38.09394102929615</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282689</v>
+        <v>9.339672552826912</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765137</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238237</v>
+        <v>506.4291208739058</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,19 +32792,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>26.13373767211347</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34784,7 +34784,7 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789636</v>
+        <v>63.51231025789528</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398835</v>
+        <v>146.4395177398818</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514729</v>
+        <v>218.9456777514708</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658268</v>
+        <v>275.6085835658247</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916965</v>
+        <v>284.7286310916942</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304728</v>
+        <v>255.3912115304706</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396268</v>
+        <v>183.120994539625</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168293</v>
+        <v>88.85690064168156</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.81957066753478</v>
+        <v>18.81957066753415</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068441</v>
+        <v>111.109911206843</v>
       </c>
       <c r="L6" t="n">
-        <v>313.7029032420429</v>
+        <v>292.5716995165343</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029674</v>
+        <v>383.0198440937139</v>
       </c>
       <c r="N6" t="n">
-        <v>383.0198440937175</v>
+        <v>269.6297444284709</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313146</v>
+        <v>224.214302131313</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017444</v>
+        <v>160.4233948017431</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.81536027239264</v>
+        <v>56.81536027239179</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315187</v>
+        <v>127.8969784315181</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835984</v>
+        <v>219.7514066835975</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588966</v>
+        <v>242.1911106588957</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084026</v>
+        <v>241.9218589084017</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121681</v>
+        <v>207.2759166121673</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051494</v>
+        <v>153.6020898051487</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504477</v>
+        <v>22.06826641504431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313201</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>466.4238188159148</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
@@ -35273,7 +35273,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040311</v>
+        <v>232.547809004032</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276242</v>
+        <v>399.7799124276256</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517089</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584686</v>
+        <v>625.3180581584705</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932464</v>
+        <v>640.0967705932485</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077528</v>
+        <v>590.9552686077546</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062432</v>
+        <v>469.5171537062448</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151085</v>
+        <v>303.9284889151096</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156558</v>
+        <v>90.52095692156627</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116371</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458958</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457666</v>
+        <v>427.5634418457678</v>
       </c>
       <c r="M12" t="n">
-        <v>93.92014471042792</v>
+        <v>518.4987618625153</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313797</v>
+        <v>105.9950462899201</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987356</v>
+        <v>477.749043298737</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062161</v>
+        <v>363.9073766062172</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211626</v>
+        <v>192.8390133211633</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936581</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701815</v>
+        <v>61.18259316701852</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360909</v>
+        <v>231.6901150360915</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112332</v>
+        <v>352.570886811234</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788211</v>
+        <v>382.2306297882118</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765375</v>
+        <v>378.6315512765383</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190452</v>
+        <v>333.5494446190459</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410827</v>
+        <v>261.6509074410833</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998332</v>
+        <v>96.87566713998372</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793793</v>
+        <v>363.8328764294614</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
